--- a/spliced/walkingToRunning/2023-04-03_16-56-33/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-33/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1822662055492401</v>
+        <v>-1.054504990577698</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.421842098236084</v>
+        <v>-3.490631103515625</v>
       </c>
       <c r="E2" t="n">
-        <v>6.273701667785645</v>
+        <v>0.8201689720153809</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3088633607073536</v>
+        <v>0.2057795317889</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.214792891246529</v>
+        <v>-0.6517161301269102</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9970404418503337</v>
+        <v>-1.099296086808523</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.58828330039978</v>
+        <v>-1.129331469535828</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.849992752075195</v>
+        <v>-6.879757404327393</v>
       </c>
       <c r="E3" t="n">
-        <v>7.787976264953613</v>
+        <v>1.420253753662109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4639177885724282</v>
+        <v>-0.1219321910927993</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.8018534961270012</v>
+        <v>-0.182187830529549</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.026439111770656</v>
+        <v>-0.09341037564160559</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6846656799316406</v>
+        <v>-2.684658765792847</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.072738647460938</v>
+        <v>-0.5505852699279785</v>
       </c>
       <c r="E4" t="n">
-        <v>9.211252212524414</v>
+        <v>8.388395309448242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2579060384958233</v>
+        <v>-0.4356265911241861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02639614654386785</v>
+        <v>-0.6137270996483248</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.501566558349426</v>
+        <v>1.354154146480842</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.054504990577698</v>
+        <v>-5.721604347229004</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.490631103515625</v>
+        <v>7.858576774597168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8201689720153809</v>
+        <v>6.318061828613281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2057795317889</v>
+        <v>-0.06265412089301869</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6517161301269102</v>
+        <v>-0.5025855811631026</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.099296086808523</v>
+        <v>2.260356429146558</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.129331469535828</v>
+        <v>1.885133743286133</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.879757404327393</v>
+        <v>-1.666801452636719</v>
       </c>
       <c r="E6" t="n">
-        <v>1.420253753662109</v>
+        <v>13.95527076721191</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1219321910927993</v>
+        <v>-0.5034300181560275</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.182187830529549</v>
+        <v>0.6285661230000101</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.09341037564160559</v>
+        <v>1.827248451186396</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.684658765792847</v>
+        <v>4.083763122558594</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5505852699279785</v>
+        <v>2.682566165924072</v>
       </c>
       <c r="E7" t="n">
-        <v>8.388395309448242</v>
+        <v>5.88519811630249</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4356265911241861</v>
+        <v>-1.446588513327809</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6137270996483248</v>
+        <v>0.08285516464128959</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354154146480842</v>
+        <v>2.005940111671997</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.721604347229004</v>
+        <v>-37.18881988525391</v>
       </c>
       <c r="D8" t="n">
-        <v>7.858576774597168</v>
+        <v>-16.31022262573242</v>
       </c>
       <c r="E8" t="n">
-        <v>6.318061828613281</v>
+        <v>18.38444519042969</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06265412089301869</v>
+        <v>-1.11462547393834</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5025855811631026</v>
+        <v>-0.009374656328342557</v>
       </c>
       <c r="H8" t="n">
-        <v>2.260356429146558</v>
+        <v>3.162934237863957</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.885133743286133</v>
+        <v>-4.98013973236084</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.666801452636719</v>
+        <v>3.857727766036987</v>
       </c>
       <c r="E9" t="n">
-        <v>13.95527076721191</v>
+        <v>4.614824771881104</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5034300181560275</v>
+        <v>-0.2443921377019233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6285661230000101</v>
+        <v>1.357359671556357</v>
       </c>
       <c r="H9" t="n">
-        <v>1.827248451186396</v>
+        <v>1.662632597655804</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.083763122558594</v>
+        <v>44.95419311523438</v>
       </c>
       <c r="D10" t="n">
-        <v>2.682566165924072</v>
+        <v>-55.06259918212891</v>
       </c>
       <c r="E10" t="n">
-        <v>5.88519811630249</v>
+        <v>-3.026922225952148</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.446588513327809</v>
+        <v>0.1685504996921994</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08285516464128959</v>
+        <v>1.441876109053465</v>
       </c>
       <c r="H10" t="n">
-        <v>2.005940111671997</v>
+        <v>-4.385711685186457</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-37.18881988525391</v>
+        <v>43.95158767700195</v>
       </c>
       <c r="D11" t="n">
-        <v>-16.31022262573242</v>
+        <v>-54.27328491210938</v>
       </c>
       <c r="E11" t="n">
-        <v>18.38444519042969</v>
+        <v>-3.213864326477051</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.11462547393834</v>
+        <v>0.2859861443682361</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.009374656328342557</v>
+        <v>-2.243682384490969</v>
       </c>
       <c r="H11" t="n">
-        <v>3.162934237863957</v>
+        <v>-7.90092859035586</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.98013973236084</v>
+        <v>-9.904374122619627</v>
       </c>
       <c r="D12" t="n">
-        <v>3.857727766036987</v>
+        <v>6.515621185302734</v>
       </c>
       <c r="E12" t="n">
-        <v>4.614824771881104</v>
+        <v>11.26030445098877</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2443921377019233</v>
+        <v>2.782215724631054</v>
       </c>
       <c r="G12" t="n">
-        <v>1.357359671556357</v>
+        <v>-0.7535885743024512</v>
       </c>
       <c r="H12" t="n">
-        <v>1.662632597655804</v>
+        <v>-2.988133376691399</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44.95419311523438</v>
+        <v>-2.358283281326294</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.06259918212891</v>
+        <v>-57.28740692138672</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.026922225952148</v>
+        <v>-2.653994083404541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1685504996921994</v>
+        <v>-0.493949881414097</v>
       </c>
       <c r="G13" t="n">
-        <v>1.441876109053465</v>
+        <v>-2.56519750065012</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.385711685186457</v>
+        <v>-2.295662734566661</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43.95158767700195</v>
+        <v>-12.77801513671875</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.27328491210938</v>
+        <v>3.484463453292847</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.213864326477051</v>
+        <v>8.297730445861816</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2859861443682361</v>
+        <v>-7.865739104224518</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.243682384490969</v>
+        <v>-8.845545524049903</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.90092859035586</v>
+        <v>1.579899276175187</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-9.904374122619627</v>
+        <v>-23.53105735778809</v>
       </c>
       <c r="D15" t="n">
-        <v>6.515621185302734</v>
+        <v>3.71211051940918</v>
       </c>
       <c r="E15" t="n">
-        <v>11.26030445098877</v>
+        <v>4.357646942138672</v>
       </c>
       <c r="F15" t="n">
-        <v>2.782215724631054</v>
+        <v>3.534730899624699</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7535885743024512</v>
+        <v>-1.276565199218106</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.988133376691399</v>
+        <v>-3.009974456414927</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.358283281326294</v>
+        <v>-33.88568878173828</v>
       </c>
       <c r="D16" t="n">
-        <v>-57.28740692138672</v>
+        <v>-50.99709701538086</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.653994083404541</v>
+        <v>13.22272872924805</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.493949881414097</v>
+        <v>4.82583797559505</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.56519750065012</v>
+        <v>-4.776124651839162</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.295662734566661</v>
+        <v>-4.42023835749164</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-12.77801513671875</v>
+        <v>-24.3600902557373</v>
       </c>
       <c r="D17" t="n">
-        <v>3.484463453292847</v>
+        <v>2.738663196563721</v>
       </c>
       <c r="E17" t="n">
-        <v>8.297730445861816</v>
+        <v>11.53956317901611</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.865739104224518</v>
+        <v>4.827630825159058</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.845545524049903</v>
+        <v>5.732881429718808</v>
       </c>
       <c r="H17" t="n">
-        <v>1.579899276175187</v>
+        <v>1.179853487305514</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-23.53105735778809</v>
+        <v>18.28820610046387</v>
       </c>
       <c r="D18" t="n">
-        <v>3.71211051940918</v>
+        <v>-0.5376138687133789</v>
       </c>
       <c r="E18" t="n">
-        <v>4.357646942138672</v>
+        <v>9.498839378356934</v>
       </c>
       <c r="F18" t="n">
-        <v>3.534730899624699</v>
+        <v>-2.591416502871155</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.276565199218106</v>
+        <v>-4.246028906688475</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.009974456414927</v>
+        <v>3.687537992872843</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-33.88568878173828</v>
+        <v>-62.44527816772461</v>
       </c>
       <c r="D19" t="n">
-        <v>-50.99709701538086</v>
+        <v>-7.982970237731934</v>
       </c>
       <c r="E19" t="n">
-        <v>13.22272872924805</v>
+        <v>-32.66093826293945</v>
       </c>
       <c r="F19" t="n">
-        <v>4.82583797559505</v>
+        <v>-5.452502425124007</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.776124651839162</v>
+        <v>1.563533739345819</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.42023835749164</v>
+        <v>3.775565188105511</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-24.3600902557373</v>
+        <v>23.0417537689209</v>
       </c>
       <c r="D20" t="n">
-        <v>2.738663196563721</v>
+        <v>16.5068416595459</v>
       </c>
       <c r="E20" t="n">
-        <v>11.53956317901611</v>
+        <v>-16.63084411621094</v>
       </c>
       <c r="F20" t="n">
-        <v>4.827630825159058</v>
+        <v>-4.596750730421486</v>
       </c>
       <c r="G20" t="n">
-        <v>5.732881429718808</v>
+        <v>7.476189779072271</v>
       </c>
       <c r="H20" t="n">
-        <v>1.179853487305514</v>
+        <v>4.383058036245957</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18.28820610046387</v>
+        <v>-5.877625465393066</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5376138687133789</v>
+        <v>-9.525984764099119</v>
       </c>
       <c r="E21" t="n">
-        <v>9.498839378356934</v>
+        <v>-0.1709146499633789</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.591416502871155</v>
+        <v>-3.8169967372243</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.246028906688475</v>
+        <v>9.492706188341467</v>
       </c>
       <c r="H21" t="n">
-        <v>3.687537992872843</v>
+        <v>-5.739285922631989</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5468623042106628</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.408160209655762</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43.39143753051758</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.77226390198965</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.99830269232031</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.008213531680217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.48110294342041</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21.88984298706055</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.76063346862793</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.478664084178635</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.857492981887443</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.977369552705346</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19.5135498046875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-70.08018493652344</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.09575080871582</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5908174134972555</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1589468512229657</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.452448280846219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-37.2692756652832</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.71374130249023</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.724684715270996</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-13.21499349467632</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-7.594239313064515</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.02689108034458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-22.65700340270996</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.547637939453125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-17.0935115814209</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.174701481330613</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-10.92443460371436</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.552455660046618</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>78.31330871582031</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-70.41346740722656</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.543253421783447</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.570928898958005</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-8.095582741062824</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9565766177526321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.919276475906372</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.1894645690918</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.611269950866699</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.965150342112763</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.8617115107978</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.040716253402757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>41.53395843505859</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10.51663017272949</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.93678855895996</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2588674527842816</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.578985643822968</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.977885912104351</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19.39011192321777</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10.6725959777832</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-12.10480403900146</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.832312445815016</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.201128745497</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.380974077596895</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10.54305171966553</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18.1186752319336</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-10.15065765380859</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.569073584021599</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.38156421046433</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.2334796684544305</v>
       </c>
     </row>
   </sheetData>
